--- a/docs/source/synthmed_worksheet.xlsx
+++ b/docs/source/synthmed_worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/synthmed/docs/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA37179-9B67-484E-87AB-0267DFBCD402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4812BFED-0D36-764B-8273-2A314DE60041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="640" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Items" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
   <si>
     <t>Type</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>althex123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizes Granite to generate Python code, comments, documentation, performance, etc. </t>
   </si>
   <si>
     <t>Technical Lead</t>
@@ -477,11 +474,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,17 +712,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" sqref="A1:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="106.5" customWidth="1"/>
+    <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="114.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,7 +774,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -814,7 +811,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -916,7 +913,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -983,7 +980,7 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1202,7 +1199,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1252,7 +1249,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1342,7 +1339,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
@@ -1391,7 +1388,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1423,7 +1420,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1465,7 +1462,7 @@
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1519,7 +1516,7 @@
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1659,16 +1656,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="65.83203125" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1769,36 +1766,34 @@
       <c r="D6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
